--- a/data/financial_statements/soci/BRO.xlsx
+++ b/data/financial_statements/soci/BRO.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,3858 +590,3936 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>901400000</v>
+      </c>
+      <c r="C2">
         <v>927600000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>839700000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>904700000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>738497900</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>770300000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>727300000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>815300000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>642112100</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>673962000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>598806000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>698495000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>578988900</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>618683000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>575219000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>619280000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>508748000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>530850000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>473187000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>501461000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>474316100</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>475646000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>466305000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>465080000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>433664000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>462274000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>446518000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>424173000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>404597000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>432167000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>419447000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>404298000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>393020000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>421418000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>397764000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>363594000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>343165100</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>359310000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>325792000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>335012000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.2206</v>
+      </c>
+      <c r="C3">
         <v>0.2042</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1545</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1097</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1501</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1429</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2146</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1672</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.109</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0893</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.041</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.1279</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1381</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1655</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.2156</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.235</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0726</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1161</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0148</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.07820000000000001</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.09370000000000001</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0289</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0443</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0964</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0718</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0697</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0645</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0492</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0295</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0255</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0545</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.1119</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1453</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1729</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.2209</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0853</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1332</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1827</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1199</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1075</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>475600000</v>
+      </c>
+      <c r="C4">
         <v>470300000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>412100000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>459000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>416811000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>395000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>395600000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>429500000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>377471000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>362767000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>346515000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>349624000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>334598100</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>331120000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>309610000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>332837000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>278011900</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>268045000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>251958000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>270899000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>258207000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>246062000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>244517000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>245866000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>232403000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>237653000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>231102000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>224059000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>211533000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>216156000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>217601000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>211662000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>227479000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>203126000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>196397000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>184110000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>179460000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>180528000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>163514000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>159498000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>425800000</v>
+      </c>
+      <c r="C5">
         <v>457300000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>427600000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>445700000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>321686800</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>375300000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>331700000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>385800000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>264641100</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>311195000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>252291000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>348871000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>244390800</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>287563000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>265609000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>286443000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>230736100</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>262805000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>221229000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>230562000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>216109100</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>229584000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>221788000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>219214000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>201261000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>224621000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>215416000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>200114000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>193064000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>216011000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>201846000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>192636000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>165541100</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>218292000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>201367000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>179484000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>163705100</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>178782000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>162278000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>175514000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI6">
         <v>5640000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>5994000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>7515000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>7699000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>7431000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3623000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3850000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>194200000</v>
+      </c>
+      <c r="C7">
         <v>218000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>198800000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>265000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>140822900</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>196499900</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>186300000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>239200000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>130917300</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>158528000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>129401000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>205253000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>102048800</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>151838000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>123522000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>148520100</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>100611100</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>142499900</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>100910000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>118441000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>106334100</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>124419000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>108002000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>110967000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>94901100</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>116972000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>109077000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>102549000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>95037100</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>112830000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>100914000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>93778000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>38446100</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>112685000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>101781000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>86837000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>76442000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>95455000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>86221000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>99491000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>45400000</v>
+      </c>
+      <c r="C8">
         <v>41500000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>36000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>18300000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>16181000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>16200000</v>
-      </c>
-      <c r="G8">
-        <v>16300000</v>
       </c>
       <c r="H8">
         <v>16300000</v>
       </c>
       <c r="I8">
+        <v>16300000</v>
+      </c>
+      <c r="J8">
         <v>16639000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>13234000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>13809000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15291000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>15855000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>16314000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>16293000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>15198000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>11894000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8963000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>10052000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>9671000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>9367000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>9393000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>9874000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>9682000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>9864000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>9883000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>9837000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>9897000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>9844000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>9882000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>9671000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>9851000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>10034000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>7298000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>7004000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>4072000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>4324000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>4135000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>3997000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>3984000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>61300000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>20800000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>11700000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>45100000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>45438000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>24196000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-890000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>14600000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>28618000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>9235000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5043000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>46200000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>194200000</v>
+      </c>
+      <c r="C10">
         <v>218000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>198800000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>265000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>140823000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>196500000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>186300000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>239200000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>130917000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>158528000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>129401000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>205253000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>102049000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>151838000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>123522000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>148520000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>100611000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>142500000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>100910000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>118441000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>106334000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>124419000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>108002000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>110967000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>94901000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>116972000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>109077000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>102549000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>95037000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>112830000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>100914000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>93778000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>38446000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>112685000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>101781000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>86837000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>76442000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>95455000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>86221000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>99491000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>49000000</v>
+      </c>
+      <c r="C11">
         <v>56900000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>53600000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>44700000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>39119000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>50100000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>47000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>39500000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>33597000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>24549000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>32617000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>52853000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>25530000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>36332000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>30929000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>34624000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>27159000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>36447000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>26988000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>27613000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-81171000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>48506000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>41900000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>40857000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>37275000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>45427000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>42827000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>40479000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>37102000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>45403000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>39909000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>36827000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>14051000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>44354000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>40026000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>34422000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>29217000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>37706000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>34214000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>39360000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>145200000</v>
+      </c>
+      <c r="C12">
         <v>161100000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>145200000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>220300000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>101704000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>146400000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>139300000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>199700000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>97320000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>133979000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>96784000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>152400000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>76519000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>115506000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>92593000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>113896000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>73452000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>106053000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>73922000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>90828000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>187505000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>75913000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>66102000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>70110000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>57626000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>71545000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>66250000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>62070000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>57935000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>67427000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>61005000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>56951000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>24395000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>68331000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>61755000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>52415000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>47225000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>57749000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>52007000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>60131000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>145200000</v>
+      </c>
+      <c r="C13">
         <v>2900000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2700000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4400000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1842000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3100000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2685000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3740000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3580000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>5192000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2880000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3772000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3020000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3201000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2061000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2716000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1618000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1902000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>4566000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1852000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1642000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1686000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1485000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1873000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1896000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1451000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1328000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1565000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1439000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1363000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>598000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1681000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1531000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1376000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1355000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1626000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1157000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1308000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>158200000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>142500000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>215900000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>99862000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>143300000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>136300000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>194700000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>94635000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>130239000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>93204000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>147208000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>73639000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>111734000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>89573000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>110695000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>71391000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>103337000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>72304000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>88926000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>182939000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>74061000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>64460000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>68424000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>56141000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>69672000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>64354000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>60619000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>56607000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>65862000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>59566000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>55588000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>23797000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>66650000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>60224000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>51039000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>45870000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>56123000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>50850000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>58823000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>0.57</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.51</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.78</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.36</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.52</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.49</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.71</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.34</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.47</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.34</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.54</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.27</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.41</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.33</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.41</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.26</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.38</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.27</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.33</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.675</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.27</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.235</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.25</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.205</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.255</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.235</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.225</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.205</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.24</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.215</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.2</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.08500000000000001</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.235</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.22</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.185</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.16</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.2</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0.18</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>0.57</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.51</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.77</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.36</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.52</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.49</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.7</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.34</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.47</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.34</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.54</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.27</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.41</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.33</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.4</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.26</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.38</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.26</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.32</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.66</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.265</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.23</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.245</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.205</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.25</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.235</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.22</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.205</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.235</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.215</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.195</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.08500000000000001</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.235</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.21</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.185</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.16</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.195</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.18</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.205</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>278048000</v>
+      </c>
+      <c r="C17">
         <v>277800000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>277200000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>277100000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>276024000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>276200000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>275700000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>275600000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>274334000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>275515000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>273100000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>272776000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>272471000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>272962000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>272563000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>272679000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>270971000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>271008000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>270081000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>270172000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>272580000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>272692000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>273384000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>273487000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>272278000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>272922000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>271984000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>271096000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>275620000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>275368000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>275036000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>278720000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>281888000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>281830000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>282500000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>283220000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>282066000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>282278000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>281672000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>281592000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>279018000</v>
+      </c>
+      <c r="C18">
         <v>278700000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>278200000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>278600000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>277414000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>277500000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>276900000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>277000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>275867000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>276933000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>274362000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>274861000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>274616000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>275075000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>274402000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>275014000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>275521000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>275282000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>275908000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>275714000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>277586000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>277786000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>278202000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>278052000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>275608000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>276364000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>275162000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>273880000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>280224000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>280082000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>279656000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>282974000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>285782000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>285928000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>286064000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>286618000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>285248000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>285578000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>286042000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>285894000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.4724</v>
+      </c>
+      <c r="C19">
         <v>0.493</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.5092</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4926</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.4356</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.4872</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.4561</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.4732</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.4121</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.4617</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.4213</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.4995</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.4221</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.4648</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.4618</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.4625</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.4535</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.4951</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.4675</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.4598</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.4556</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.4827</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.4756</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.4713</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.4641</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.4859</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.4824</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.4718</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.4772</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.4998</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.4812</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.4765</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.4212</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.518</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.5062</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.4936</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.477</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.4976</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.4981</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.2658</v>
+      </c>
+      <c r="C20">
         <v>0.2798</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2796</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3131</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.2126</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.2761</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.2786</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.3134</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.2298</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.2549</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.2392</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.3157</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2036</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2718</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.2431</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.2644</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2211</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.2853</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.2345</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.2555</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2439</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.2813</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.2528</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.2594</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.2416</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.2744</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.2663</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.2651</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.2592</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.2839</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.2636</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.2563</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.1234</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.2847</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.2735</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.25</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.2354</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.2772</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.2769</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.3089</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.2154</v>
+      </c>
+      <c r="C21">
         <v>0.235</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2368</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2929</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1907</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.2551</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2562</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2934</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2039</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2352</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2161</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.2939</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1763</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2454</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2147</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2398</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1978</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2684</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2133</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2362</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2242</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2616</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2316</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2386</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2188</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.253</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2443</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2418</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2349</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2611</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2406</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.232</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.0978</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2674</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2559</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2388</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2228</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2657</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2647</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.297</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0.1705</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1697</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2386</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1352</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.186</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1874</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2388</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1474</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1932</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1556</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.2108</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1272</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1806</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1557</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1787</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1403</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1947</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1528</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1773</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.3857</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1557</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1382</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1471</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1295</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1507</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1441</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1429</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1399</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1524</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.142</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1375</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.0605</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1582</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1514</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1404</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1337</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1562</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1561</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1756</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>315400000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>278500000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>323200000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>196715900</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>252099900</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>241700000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>293200000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>184051300</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>206032000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>176680000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>253475000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>151223800</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>200773000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>171962000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>196394000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>142913100</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>178754900</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>137756000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>154613000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>142615100</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>161149000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>145483000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>148797000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>131979100</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>154283000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>146334000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>139851000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>132190100</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>149320000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>137899000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>130866000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>76542100</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>147422000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>134650000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>113425000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>103147000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>121914000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>110602000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>123803000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>239599900</v>
+      </c>
+      <c r="C24">
         <v>259500000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>234800000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>283300000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>157004100</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>212699900</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>202600000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>255500000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>147556200</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>171761900</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>143210000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>220544000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>117903800</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>168152000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>139815000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>163718000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>112505100</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>151462900</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>110962000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>128112000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>115701100</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>133812000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>117876000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>120649000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>104765100</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>126855000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>118914000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>112446000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>104881100</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>122712000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>110585000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>103629000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>48480000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>119983000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>108785000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>90909000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>80766000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>99590000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>90218000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>103475000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>145200000</v>
+      </c>
+      <c r="C25">
         <v>161100000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>145200000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>220300000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>101704000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>146400000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>139300000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>199700000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>97320000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>133979000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>96784000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>152400000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>76519000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>115506000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>92593000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>113896000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>73452000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>106053000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>73922000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>90828000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>187505000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>75913000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>66102000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>70110000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>57626000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>71545000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>66250000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>62070000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>57935000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>67427000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>61005000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>56951000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>24395000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>68331000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>61755000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>52415000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>47225000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>57749000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>52007000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>60131000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>145200000</v>
+      </c>
+      <c r="C26">
         <v>161100000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>145200000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>220300000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>101704000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>146400000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>139300000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>199700000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>97320000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>133979000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>96784000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>152400000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>76519000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>115506000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>92593000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>113896000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>73452000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>106053000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>73922000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>90828000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>187505000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>75913000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>66102000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>70110000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>57626000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>71545000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>66250000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>62070000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>57935000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>67427000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>61005000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>56951000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>24395000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>68331000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>61755000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>52415000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>47225000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>57749000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>52007000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>60131000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>0.5222</v>
+      </c>
+      <c r="C27">
         <v>0.5799</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.5238</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.795</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.3671</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.5301</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.5053</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.7246</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.3521</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.4863</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.3544</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.5587</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.282</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.4232</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.3397</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.4177</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.2692</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.3913</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.2737</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.3362</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.6896</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.2784</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.2418</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.2564</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.211</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.2621</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.2436</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.229</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.2118</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.2449</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.2218</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.2043</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.0878</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.2425</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.2186</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.1851</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.167</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.2046</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.1846</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.2135</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>0.5204</v>
+      </c>
+      <c r="C28">
         <v>0.578</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.5219</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.7907</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.3648</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.5276</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.5031</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.7209</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.3507</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.4838</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.3528</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.5545</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.2797</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.4199</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.3374</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.4141</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.2669</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.3853</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.2679</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.3294</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.6766</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.2733</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.2376</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.2521</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.208</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.2589</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.2408</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.2266</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.2082</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.2407</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.2181</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.2013</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.0862</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.239</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.2159</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.1829</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.1668</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.2022</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.1818</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.2103</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0.5222</v>
+      </c>
+      <c r="C29">
         <v>0.5799</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.5238</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.795</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.3671</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.5301</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.5053</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.7246</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.3521</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.4863</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.3544</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.5587</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.282</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.4232</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.3397</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.4177</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.2692</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.3913</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.2737</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.3362</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.6896</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.2784</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.2418</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.2564</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.211</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.2621</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.2436</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.229</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.2118</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.2449</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.2218</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.2043</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.0878</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.2425</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.2186</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.1851</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.167</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.2046</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.1846</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.2135</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.5204</v>
+      </c>
+      <c r="C30">
         <v>0.578</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.5219</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.7907</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.3648</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.5276</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.5031</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.7209</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.3507</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.4838</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.3528</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.5545</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.2797</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.4199</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.3374</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.4141</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.2669</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.3853</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.2679</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.3294</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.6766</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.2733</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.2376</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.2521</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.208</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.2589</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.2408</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.2266</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.2082</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.2407</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.2181</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.2013</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.0862</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.239</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.2159</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.1829</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.1668</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.2022</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.1818</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.2103</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>278688000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>278218000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>278566000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>278128000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>277553000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>276877000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>276955000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>277398000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>276933000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>274362000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>274861000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>274814000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>275075000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>274402000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>275014000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>275273000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>275282000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>275908000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>275714000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>276202000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>277786000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>278202000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>278052000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>276810000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>276364000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>275162000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>273880000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>278226000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>280082000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>279656000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>282974000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>284480000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>285928000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>286064000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>286618000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>286072000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>285578000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>286042000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>285894000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0.34</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.3317</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.3572</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.2664</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.3273</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.3323</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.3596</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.2866</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.3057</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.2951</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.3629</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.2612</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.3245</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.299</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.3171</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.2809</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.3367</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.2911</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.3083</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.3007</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.3388</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.312</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.3199</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.3043</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.3337</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.3277</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.3297</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.3267</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.3455</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.3288</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.3237</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.1948</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.3498</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.3385</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.312</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.3006</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.3393</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.3395</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.3695</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0.3124</v>
+      </c>
+      <c r="C33">
         <v>0.2734</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.2889</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.1145</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.4261</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.3218</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.3326</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.1693</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.2835</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.1823</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.6394</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.0484</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.3991</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.2286</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.5221</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.0086</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.4167</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.1471</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.4183</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.1585</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.2707</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0914</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.3861</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.1936</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.2119</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.174</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.4601</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.07829999999999999</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.2254</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.1464</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.4212</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.1254</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.2536</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.2557</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.2777</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.1847</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.2316</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.245</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.2605</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.409</v>
       </c>
     </row>
